--- a/data/hotels_by_city/Houston/Houston_shard_316.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_316.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55726-d1139790-Reviews-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Deer-Park.h1988069.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,729 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r522093298-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>1139790</t>
+  </si>
+  <si>
+    <t>522093298</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>First class accommodations in an affordable hotel</t>
+  </si>
+  <si>
+    <t>I came to Houston one week after Harvey and stayed at this hotel. The place was working in good order and I was especially impressed by the cheerful and upbeat attitude of the staff. My room was huge and quite comfortable. The A/C was great and there was no outside noise. I'll be back when in Deer Park again.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r486023975-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>486023975</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>I started for 5 days and I found the hotel has very helpful and friendly staff. Nice rooms. Clean and quiet place. There isn't much to do in Deer Park so hotel pool is a best place to enjoy the evening. Breakfast was okay, just regular stuff.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r477300733-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>477300733</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Typical Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>If you have stayed at one, this location is basically the same as all of them.  It is fairly new, so nothing is dated yet.  They offer decent sized rooms at reasonable prices.  I think all rooms have flat screen TVs, a small fridge, a Keurig coffee maker, and a microwave.They have a fitness center, the standard free breakfast that includes the very tasty cinnamon rolls / sticky buns, and an outdoor pool.It is clean and the front desk staff is friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>If you have stayed at one, this location is basically the same as all of them.  It is fairly new, so nothing is dated yet.  They offer decent sized rooms at reasonable prices.  I think all rooms have flat screen TVs, a small fridge, a Keurig coffee maker, and a microwave.They have a fitness center, the standard free breakfast that includes the very tasty cinnamon rolls / sticky buns, and an outdoor pool.It is clean and the front desk staff is friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r450776821-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>450776821</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been here twice because it is close to my Grandma's assisted living facility. Had a comfortable stay both times with a family of four. We stay in the 2 queen suite. Nothing super fancy but it's clean, pretty spacious room, and appreciate the mini kitchen, little sitting area and HBO. Free breakfast is included. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r419936053-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>419936053</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Room &amp; breakfast were excellent....Pool area, different story.</t>
+  </si>
+  <si>
+    <t>Room: Check.  The bed and pillows were wonderful.AC:  Check.  Very good.Breakfast: Check.  The gentleman who heads up the breakfast is phenomenal.  A very personable man and took great care of all who was in the breakfast area.  He's a keeper!Bathroom:  Very clean although, the lighting is terrible!  The bulbs should be a higher wattage or get some new lighting.  I had to sit at the window with my mirror to put on my make up.  Front staff:  Need more practice in customer service. No words of welcome as we came in. Also, when it came to us asking questions about the unexpected pool party that afternoon, we got a lot of "I don't knows".  Letting customers know that a "private pool party" was to take place around 3:00 that afternoon.....Not so good!!Bad communication between front desk personnel and manager needs work.  Be sure to check ahead and make sure that there are not "surprise" parties book if you want to enjoy the pool area (which is great).  Just sayin'.  We were very unhappy.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Room: Check.  The bed and pillows were wonderful.AC:  Check.  Very good.Breakfast: Check.  The gentleman who heads up the breakfast is phenomenal.  A very personable man and took great care of all who was in the breakfast area.  He's a keeper!Bathroom:  Very clean although, the lighting is terrible!  The bulbs should be a higher wattage or get some new lighting.  I had to sit at the window with my mirror to put on my make up.  Front staff:  Need more practice in customer service. No words of welcome as we came in. Also, when it came to us asking questions about the unexpected pool party that afternoon, we got a lot of "I don't knows".  Letting customers know that a "private pool party" was to take place around 3:00 that afternoon.....Not so good!!Bad communication between front desk personnel and manager needs work.  Be sure to check ahead and make sure that there are not "surprise" parties book if you want to enjoy the pool area (which is great).  Just sayin'.  We were very unhappy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r397734096-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>397734096</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay. large rooms, very clean and staff very nice!</t>
+  </si>
+  <si>
+    <t>I booked three rooms for my family to stay the night before our cruise out of Galveston, TX.  The front desk person (Brett) was super friendly and helpful as well as the person at the front desk when we checked out.  The rooms were fantastic - very large, clean and comfortable beds. The gentleman that was in charge of the breakfast buffet in the morning was very nice and very helpful. If we cruise again out of Galveston, we would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r365525731-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>365525731</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Nice Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>This is your standard Holiday Inn Express. I have stayed here a few times and they have maintained it well. The staff is always friendly and helpful. The rooms are clean and the ones I have had seem a little bigger than most other HI Expresses. They have plenty of parking.  I like that they now have Keurig coffee makers for a fast, hot cup of coffee in the morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>This is your standard Holiday Inn Express. I have stayed here a few times and they have maintained it well. The staff is always friendly and helpful. The rooms are clean and the ones I have had seem a little bigger than most other HI Expresses. They have plenty of parking.  I like that they now have Keurig coffee makers for a fast, hot cup of coffee in the morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r352466675-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>352466675</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Strange Location for a Major Hotel Chain - not that easy to find</t>
+  </si>
+  <si>
+    <t>Room was HUGE - room was clean - both features are nice - the mattress sits directly on top of a metal bed-stand/frame so not especially soft.  The room showed some signs of wear (cracked tiles in the bath - tub had seen better days), but it was $20+ cheaper than the newer Holiday Inn Express in La Porte.  I would stay there again, but I still think it is an unusual place to locate a hotel (not close to any major roads - not well marked or easy to find, especially after dark)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Room was HUGE - room was clean - both features are nice - the mattress sits directly on top of a metal bed-stand/frame so not especially soft.  The room showed some signs of wear (cracked tiles in the bath - tub had seen better days), but it was $20+ cheaper than the newer Holiday Inn Express in La Porte.  I would stay there again, but I still think it is an unusual place to locate a hotel (not close to any major roads - not well marked or easy to find, especially after dark)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r332471101-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>332471101</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Excellent place to stay, friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here on business for about a week.  My room was always well kept and the breakfast was decent.  Since the hotel was only 5 minutes from work made it even better. The bathroom was spotless each night, and that means a lot when you get dirty every day from work.  And when I say dirty, I mean dirty.  The staff is extra nice and go out of their way to accommodate any requests.  I will definitely stay here again.  As a disclaimer, I wish they served bacon more often for breakfast as opposed to the vile turkey sausage.  Oh, and the person providing breakfast had it out and ready way before 630 am.  That means a lot as we have limited time to eat and get to work.  It made the difference of not getting breakfast or eating it so fast you didn't taste it.  Kudos to the breakfast attendant. I appreciate the fact I can get a good breakfast to start the day.  This Holiday Inn is independently operated, that's probably why the service and amenities are so good.  Highly recommended. 8 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here on business for about a week.  My room was always well kept and the breakfast was decent.  Since the hotel was only 5 minutes from work made it even better. The bathroom was spotless each night, and that means a lot when you get dirty every day from work.  And when I say dirty, I mean dirty.  The staff is extra nice and go out of their way to accommodate any requests.  I will definitely stay here again.  As a disclaimer, I wish they served bacon more often for breakfast as opposed to the vile turkey sausage.  Oh, and the person providing breakfast had it out and ready way before 630 am.  That means a lot as we have limited time to eat and get to work.  It made the difference of not getting breakfast or eating it so fast you didn't taste it.  Kudos to the breakfast attendant. I appreciate the fact I can get a good breakfast to start the day.  This Holiday Inn is independently operated, that's probably why the service and amenities are so good.  Highly recommended. 8 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r318881803-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>318881803</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>The Good, the Bad and the Ugly</t>
+  </si>
+  <si>
+    <t>First the good - nice front desk staff, good coffee available very early in the morning, spacious rooms!  The bad - stained carpeting and a bit on the dirty side and mold around tub and shower unit - not what I expect from a good Holiday Inn Express!  And now for the ugly - stained sheets on bed.  While I'm sure that they were clean (hopefully) there is ABSOLUTELY no excuse for putting them back on a bed.  Again, I expect better from the Holiday Inn family!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>First the good - nice front desk staff, good coffee available very early in the morning, spacious rooms!  The bad - stained carpeting and a bit on the dirty side and mold around tub and shower unit - not what I expect from a good Holiday Inn Express!  And now for the ugly - stained sheets on bed.  While I'm sure that they were clean (hopefully) there is ABSOLUTELY no excuse for putting them back on a bed.  Again, I expect better from the Holiday Inn family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r301966135-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>301966135</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>"Green" means poor lighting &amp; water pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice, newer hotel.  I would have given it 5 stars, except for the poor lighting, weak water pressure, &amp; terrible wifi. I had to use my cell phone flashlight to do my make-up. The shower pressure was terrible. The wifi dropped constantly. I lost a lot of unsaved work after it dropped. I ended up having to use a LAN cable.  I understand trying to be "green" but they could have saved a lot of electricity if housekeeping didn't crank the a/c to the point of a meat locker. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r298900421-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>298900421</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Trip for Nieces Wedding</t>
+  </si>
+  <si>
+    <t>The Hotel was nice and clean and the breakfast was good. The only problem we had there was our door keys stopped working 4 times! We were locked out of our room for half an hour when we needed to be getting ready for the wedding. They finally moved us to a different room. We were able to get ready and we got to there just ahead of the wedding party's march down the isle. Whew! All in all, it was a good stay, the hotel personnel were all nice and eager to help. We would definitely stay there again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r282712018-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>282712018</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Upon arriving check in was fast and the lobby is very nicely decorated.  I asked about local restaruants for dinner and was given great advice.  The room was very large with sofa and chairs and 2 queen beds.  Also, small refridgerator, microwave, sink with cabinets.  Would be perfect for small family traveling or someone taking family on business trip with them.  The bathroom was nice and clean with a great shower head and towels.  I felt very safe inside and in the well lite parking area. The breakfast area was clean and there was plenty to eat and plenty of tables and chairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2015</t>
+  </si>
+  <si>
+    <t>Upon arriving check in was fast and the lobby is very nicely decorated.  I asked about local restaruants for dinner and was given great advice.  The room was very large with sofa and chairs and 2 queen beds.  Also, small refridgerator, microwave, sink with cabinets.  Would be perfect for small family traveling or someone taking family on business trip with them.  The bathroom was nice and clean with a great shower head and towels.  I felt very safe inside and in the well lite parking area. The breakfast area was clean and there was plenty to eat and plenty of tables and chairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r272881593-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>272881593</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed here quite a few times. No complaints. Friendly staff, ample breakfast staff, and conveniently located to where I have to visit for work. Pros: all rooms are very big and have a safe inside them, usually fresh made cookies at reception desk, plenty of parkingCons: breakfast doesn't change much/variety (but that's typical for all Holiday Inn Expressed) </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r267336013-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>267336013</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>This is a new hotel, very clean. The rooms are huge. Nice pool and hot tub. Nice breakfast. My only complaint was the staff, they were so rude when we checked in. And they did not listen to us. I'm a reward customer and I gave him my number he pushed it aside, gave us and another guy he same room. Very rude people</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r257395304-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>257395304</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Unaccomodating</t>
+  </si>
+  <si>
+    <t>I was supposed to stay here on a business trip but plans changed. I called the night i was supposed to check in and said I won't be able to make it, so they can sell the room to someone else. They still charged me a no show. Rude. MoreShow less</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>I was supposed to stay here on a business trip but plans changed. I called the night i was supposed to check in and said I won't be able to make it, so they can sell the room to someone else. They still charged me a no show. Rude. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r257152310-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>257152310</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Spacious and comfy room</t>
+  </si>
+  <si>
+    <t>Had a very nice experience at the Holiday Inn Express Deer Park location.  The front desk employee was friendly and efficient and also made a helpful recommendation for dinner.  I was able to utilize the fitness room, but found that some of the equipment (1 treadmill and 1 elliptical) needed repair.  The weight machine was operational though.  The guest room was comfortable and clean.  The TV's speaker in the bathroom was a nice touch too.  I got a great night of sleep and was fully satisfied with the bed and bathroom.  The breakfast was good with quite a number of offerings as well.  Check-out was easy and quick so all in all it was a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Had a very nice experience at the Holiday Inn Express Deer Park location.  The front desk employee was friendly and efficient and also made a helpful recommendation for dinner.  I was able to utilize the fitness room, but found that some of the equipment (1 treadmill and 1 elliptical) needed repair.  The weight machine was operational though.  The guest room was comfortable and clean.  The TV's speaker in the bathroom was a nice touch too.  I got a great night of sleep and was fully satisfied with the bed and bathroom.  The breakfast was good with quite a number of offerings as well.  Check-out was easy and quick so all in all it was a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r255433170-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>255433170</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Clean and Spacious</t>
+  </si>
+  <si>
+    <t>Lots of room in this two queen room. Also had a two-seater table and a couch and coffee table. The bathroom had a speaker connected to the TV, so I didn't miss a second of audio on the game I was watching! Nice touch that I'd like to see more of in IHG hotel rooms. The workout facility was pretty clean, but the treadmills were in need of some maintenance. They were noisy and did not have full functionality.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lots of room in this two queen room. Also had a two-seater table and a couch and coffee table. The bathroom had a speaker connected to the TV, so I didn't miss a second of audio on the game I was watching! Nice touch that I'd like to see more of in IHG hotel rooms. The workout facility was pretty clean, but the treadmills were in need of some maintenance. They were noisy and did not have full functionality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r226415258-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>226415258</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Fabulous Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for work for a few days.  I was really impressed by the size of the rooms.  I just asked for a regular double bed room, but what I got felt more like a suite.  There were 2 beds, a small living area, a kitchenette, and a bathroom.  That was great!  The continental breakfast was good as well.  There were hot and cold options which I like.  I also used the pool and that was nice as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for work for a few days.  I was really impressed by the size of the rooms.  I just asked for a regular double bed room, but what I got felt more like a suite.  There were 2 beds, a small living area, a kitchenette, and a bathroom.  That was great!  The continental breakfast was good as well.  There were hot and cold options which I like.  I also used the pool and that was nice as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r222278152-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>222278152</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel and staff!!!</t>
+  </si>
+  <si>
+    <t>My family and I just love this hotel.  We stay there everytime we come to Houston/Deer Park.  The rooms are large and clean.  The staff is very helpful and informative about attrations in the Houston area.   We definitely recommend this hotel to our friends and family.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r218893603-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>218893603</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Typical Holiday Inn, but with a large room</t>
+  </si>
+  <si>
+    <t>Typical Holiday Inn USA Breakfast, with delicious Cinnamon roll. The room was clean, large and comfortable, and the pillows were also good and new. Customer service was very kind, they helped me to solve the issues with my IHG rewards registration (caused by wrong data input from UK Holiday Inn). I would definitely stay there if travelling again to Deer Park/Pasadena. Near to Center St, where you can find all the gas station, pharmacies and restaurants (the few restaurants in DeerPark).MoreShow less</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded August 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2014</t>
+  </si>
+  <si>
+    <t>Typical Holiday Inn USA Breakfast, with delicious Cinnamon roll. The room was clean, large and comfortable, and the pillows were also good and new. Customer service was very kind, they helped me to solve the issues with my IHG rewards registration (caused by wrong data input from UK Holiday Inn). I would definitely stay there if travelling again to Deer Park/Pasadena. Near to Center St, where you can find all the gas station, pharmacies and restaurants (the few restaurants in DeerPark).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r210777788-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>210777788</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Great location, excellent service.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel previously and chose it on my recent return trip to Deer Park to visit family.  Located on a quiet side street and yet very accessible to the "main drag" of Center St. Rooms were very clean and staff was very courteous.  They offer a hot breakfast which my grandsons thought were awesome.  The pancake machine and fresh cinnamon rolls were delicious and a big hit. My only concern was that the cantina didn't have a very big selection to chose from.  Also, soda machines don't offer bottled water.  All in all, a very comfortable stay.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r198948902-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>198948902</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Clean, Quiet But No Hot Water</t>
+  </si>
+  <si>
+    <t>I try to stay at this property when on business in the Deer Park/La Porte area.  The hotel again was very clean, both the room and general property.  The hotel was quiet at night for a good night's sleep.  Unfortunately, when I went to take a shower after work/dinner, the water was between warm and cold.  After a long day, that is the one thing you want from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>I try to stay at this property when on business in the Deer Park/La Porte area.  The hotel again was very clean, both the room and general property.  The hotel was quiet at night for a good night's sleep.  Unfortunately, when I went to take a shower after work/dinner, the water was between warm and cold.  After a long day, that is the one thing you want from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r197526728-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>197526728</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Really Impressed</t>
+  </si>
+  <si>
+    <t>I've stayed at alot of HIE's on business and leisure trips, and I must say this one is in the top three in my book. The staff was very courteous and polite.They even gave me a little welcome gift with various convenience item because I was an IHG Rewards member. The room (a Suite) was absolutley clean and still had a brand new appearance. I was impressed with the generous variety of toiletries in the bath.The public areas of the hotel were quiet and well kept and breakfast was served hot and promptly in the morning. It was a completley pleasant stay and if I have areason to go back to the Houston area I will definitely book there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded March 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at alot of HIE's on business and leisure trips, and I must say this one is in the top three in my book. The staff was very courteous and polite.They even gave me a little welcome gift with various convenience item because I was an IHG Rewards member. The room (a Suite) was absolutley clean and still had a brand new appearance. I was impressed with the generous variety of toiletries in the bath.The public areas of the hotel were quiet and well kept and breakfast was served hot and promptly in the morning. It was a completley pleasant stay and if I have areason to go back to the Houston area I will definitely book there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r180237407-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>180237407</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>What more to want?</t>
+  </si>
+  <si>
+    <t>This was a great hotel experience in contrast the to terrible experience at a previous hotel.  Check in was a breeze, the price was only $5 higher than a much worse hotel a block away, the bed was comfy, ac worked great, it was clean, multitude of soaps and lotions in the bathroom.  The room is huge as at all HI Express, I don't have a single complaint.  I didn't have my rewards card with me and the front desk agent advised she would look it up for me as it was late.  She couldn't find it so left a nice hand written note under the door explaining what we should do in the morning.  5 stars!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>King W, Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>This was a great hotel experience in contrast the to terrible experience at a previous hotel.  Check in was a breeze, the price was only $5 higher than a much worse hotel a block away, the bed was comfy, ac worked great, it was clean, multitude of soaps and lotions in the bathroom.  The room is huge as at all HI Express, I don't have a single complaint.  I didn't have my rewards card with me and the front desk agent advised she would look it up for me as it was late.  She couldn't find it so left a nice hand written note under the door explaining what we should do in the morning.  5 stars!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r178796348-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>178796348</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Very clean and quiet</t>
+  </si>
+  <si>
+    <t>This is a very nice Holiday Inn Express local to many of the facilities along the ship channel.  My room was large, well serviced and had a comfortable bed.  No room issues at all.Like all Holiday Inn Express hotels the breakfast offerings are a disappointment.  The first day here I went downstairs, looked in the refrigerator and found the hard boiled eggs sitting in water!  Yes they were cold but this is a great pathway to food poisoning.  I grabbed a coffee and nothing else.  I never went near the breakfast area again during my five day stay.  Basic food safety rules should always be followed.I will consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This is a very nice Holiday Inn Express local to many of the facilities along the ship channel.  My room was large, well serviced and had a comfortable bed.  No room issues at all.Like all Holiday Inn Express hotels the breakfast offerings are a disappointment.  The first day here I went downstairs, looked in the refrigerator and found the hard boiled eggs sitting in water!  Yes they were cold but this is a great pathway to food poisoning.  I grabbed a coffee and nothing else.  I never went near the breakfast area again during my five day stay.  Basic food safety rules should always be followed.I will consider staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r159744323-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>159744323</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Quiet location</t>
+  </si>
+  <si>
+    <t>We picked this hotel as it was about half way between Johnson Space Centre and San Jacinto Battleground State Historic Park.It was easy to find and is definitely quiet. The room is quite big - king size bed, lounge, easy chair, desk and a HUGE bathroom. How unusual but lovely! The room was clean.The only problem we've had is with breakfast - no yoghurt and running out of items an hour before breakfast is finished! Not good.Laundry facilities on every floor is a great idea.The front desk staff were very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>We picked this hotel as it was about half way between Johnson Space Centre and San Jacinto Battleground State Historic Park.It was easy to find and is definitely quiet. The room is quite big - king size bed, lounge, easy chair, desk and a HUGE bathroom. How unusual but lovely! The room was clean.The only problem we've had is with breakfast - no yoghurt and running out of items an hour before breakfast is finished! Not good.Laundry facilities on every floor is a great idea.The front desk staff were very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r129412394-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>129412394</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>Far out man</t>
+  </si>
+  <si>
+    <t>Stayed 4 nts on business trip to Houston.  Only negative aspect is the location.  Next time to Houston on business I'll stay downtown, instead of here with a rental car and long commute into town.  This was my first time actually staying in Houston so didn't know any better.  Yes the hotel has wifi, and free breakfast (typical scrambled eggs, bacon or preformed sausage patties, toast, pancake maker) but didn't have any yoghurt available during my stay (I asked staff).  I went out for breakfast on the 3rd day.  I travel an avg. amount on business, usually there's a decent selection of restaurants nearby - not here.  If you don't have a car you'll be going hungry.  Deer Park isn't exactly a diner's haven ~ did try 2 local places (Italian &amp; BBQ) and they were OK, not great.  The best thing about this hotel is that it is definitely QUIET - very good sleep here on nice beds, and the rooms are huge with a kitchenette included.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded June 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2012</t>
+  </si>
+  <si>
+    <t>Stayed 4 nts on business trip to Houston.  Only negative aspect is the location.  Next time to Houston on business I'll stay downtown, instead of here with a rental car and long commute into town.  This was my first time actually staying in Houston so didn't know any better.  Yes the hotel has wifi, and free breakfast (typical scrambled eggs, bacon or preformed sausage patties, toast, pancake maker) but didn't have any yoghurt available during my stay (I asked staff).  I went out for breakfast on the 3rd day.  I travel an avg. amount on business, usually there's a decent selection of restaurants nearby - not here.  If you don't have a car you'll be going hungry.  Deer Park isn't exactly a diner's haven ~ did try 2 local places (Italian &amp; BBQ) and they were OK, not great.  The best thing about this hotel is that it is definitely QUIET - very good sleep here on nice beds, and the rooms are huge with a kitchenette included.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r126201458-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>126201458</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Business Travel - Quiet &amp; Clean</t>
+  </si>
+  <si>
+    <t>I stay at a lot of hotels for business travel and this is one of the best properties.  The constuction is VERY good keeping adjacent room noise to a minimum which is hard to find with the cheap hotels built in recent years.  The property is very clean and modern and the front desk attendant very pleasant and helpful.  A really nice experience.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r122118570-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>122118570</t>
+  </si>
+  <si>
+    <t>12/26/2011</t>
+  </si>
+  <si>
+    <t>Way Above Average</t>
+  </si>
+  <si>
+    <t>This property was way above average, in most every respect I care about at least.  Cleanliness, condition of everything, and even Wi-Fi (yes, WiFi).  The WiFi here was some of the fastest I've ever seen in a hotel.  I consistently experienced 10+ meg download and 5+ meg upload.  This was great for this business traveler.  I have no idea about breakfast, business center, pool, or anything else.  I will certainly stay here again when Deer Park would be a good hub for my business travel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r33979433-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>33979433</t>
+  </si>
+  <si>
+    <t>07/05/2009</t>
+  </si>
+  <si>
+    <t>Highly recommend</t>
+  </si>
+  <si>
+    <t>My room was as nice as some I have enjoyed in premium hotels.  There were plenty of plush, fluffy towels, nice assortment of pillows, wifi and flat screen tv,  contemporary decor, and pleasant, accommodating staff.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r24203059-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>24203059</t>
+  </si>
+  <si>
+    <t>02/04/2009</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Hotel is Brand New. Exceptionally clean and very friendly staff.  Breakfast was average but always ready on-time and satisfactory.  Would not stay anywhere else in this town.  This Hotel makes the local Hampton look like a Motel 6.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1264,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1296,2125 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>164</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>224</v>
+      </c>
+      <c r="X25" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>248</v>
+      </c>
+      <c r="O28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>250</v>
+      </c>
+      <c r="X28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>259</v>
+      </c>
+      <c r="X29" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>278</v>
+      </c>
+      <c r="O32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_316.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_316.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="431">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r586270784-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>1139790</t>
+  </si>
+  <si>
+    <t>586270784</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn location @ 201 W X Street in Deer Park in May of 2018. We had a block of rooms and stayed for 2 nights. Family members came in town for a funeral and this location worked perfectly for us. Staff were very friendly, helpful and accommodating. Pros: Generous size rooms with tall ceilings, tasteful décor and clean. Large breakfast area with lots of seating (table &amp; chairs, high tops and couches), and large tv all of which has French doors that can be closed off to the lobby. This was a HUGE perk for our family members to be able to gather in a large public setting that was closed off from bothering the other guests that may be coming and going or in their rooms. They also have conference rooms that can be rented out on the first floor. Friendly staff.Cons: The hallways are a bit warm compared to the rooms and common areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed at this Holiday Inn location @ 201 W X Street in Deer Park in May of 2018. We had a block of rooms and stayed for 2 nights. Family members came in town for a funeral and this location worked perfectly for us. Staff were very friendly, helpful and accommodating. Pros: Generous size rooms with tall ceilings, tasteful décor and clean. Large breakfast area with lots of seating (table &amp; chairs, high tops and couches), and large tv all of which has French doors that can be closed off to the lobby. This was a HUGE perk for our family members to be able to gather in a large public setting that was closed off from bothering the other guests that may be coming and going or in their rooms. They also have conference rooms that can be rented out on the first floor. Friendly staff.Cons: The hallways are a bit warm compared to the rooms and common areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r554692993-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>554692993</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Short stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night due to weather conditions.  Staff was friendly.Hotel was clean and very quiet.  Room was basic but comfortable, seemed to be somewhat new.  Hotel serves hot breakfast in the morning.  It was a bonus on a cold morning and most places closed.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r522093298-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
-    <t>55726</t>
-  </si>
-  <si>
-    <t>1139790</t>
-  </si>
-  <si>
     <t>522093298</t>
   </si>
   <si>
@@ -198,9 +243,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r477300733-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -228,6 +270,48 @@
     <t>If you have stayed at one, this location is basically the same as all of them.  It is fairly new, so nothing is dated yet.  They offer decent sized rooms at reasonable prices.  I think all rooms have flat screen TVs, a small fridge, a Keurig coffee maker, and a microwave.They have a fitness center, the standard free breakfast that includes the very tasty cinnamon rolls / sticky buns, and an outdoor pool.It is clean and the front desk staff is friendly.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r461795081-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>461795081</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New, clean, impressive </t>
+  </si>
+  <si>
+    <t>Stayed here one night while traveling on business. I was very impressed with the cleanliness of the hotel overall.  The rooms were spacious and the common areas were lovely. I also appreciated that they accommodated our early breakfast needs as we had to depart by 6:15. Nothing bad to say at all! Will stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here one night while traveling on business. I was very impressed with the cleanliness of the hotel overall.  The rooms were spacious and the common areas were lovely. I also appreciated that they accommodated our early breakfast needs as we had to depart by 6:15. Nothing bad to say at all! Will stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r457170735-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>457170735</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Great value, great service!</t>
+  </si>
+  <si>
+    <t>We were running late, so we had a late check-in. Elizabeth greeted us at the front desk, and was friendly and very helpful. She not only made sure our check-in was smooth, but she even called a few minutes later to make sure we had all we needed and that the room was okay. Parking was more than adequate, and the lot is very well lit. The housekeeping staff are very pleasant, courteous, and their attention to detail is excellent. Our room was very clean and spacious. Breakfast was excellent, in a clean dining room. We will definitely stay here again!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r450776821-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -246,9 +330,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r419936053-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -294,6 +375,42 @@
     <t>I booked three rooms for my family to stay the night before our cruise out of Galveston, TX.  The front desk person (Brett) was super friendly and helpful as well as the person at the front desk when we checked out.  The rooms were fantastic - very large, clean and comfortable beds. The gentleman that was in charge of the breakfast buffet in the morning was very nice and very helpful. If we cruise again out of Galveston, we would definitely stay here again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r371581241-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>371581241</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel and Staff!</t>
+  </si>
+  <si>
+    <t>This hotel exceeded our expectations by far.  Great hot breakfast every morning.  Awesome pool with plenty of coverage from the sun.  The kids want to repeat the stay every day!  Will definitely stay again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r365986715-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>365986715</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Decent hotel fairly new, located down the street from the Deer Park, Texas Police Department. We stayed here in April, 2016 for a family get together. Hotel clean,nice rooms, we stayed in a suite. Would recommend if conducting business in the area.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r365525731-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -309,9 +426,6 @@
     <t>This is your standard Holiday Inn Express. I have stayed here a few times and they have maintained it well. The staff is always friendly and helpful. The rooms are clean and the ones I have had seem a little bigger than most other HI Expresses. They have plenty of parking.  I like that they now have Keurig coffee makers for a fast, hot cup of coffee in the morning. MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded April 21, 2016</t>
   </si>
   <si>
@@ -375,6 +489,54 @@
     <t>I stayed here on business for about a week.  My room was always well kept and the breakfast was decent.  Since the hotel was only 5 minutes from work made it even better. The bathroom was spotless each night, and that means a lot when you get dirty every day from work.  And when I say dirty, I mean dirty.  The staff is extra nice and go out of their way to accommodate any requests.  I will definitely stay here again.  As a disclaimer, I wish they served bacon more often for breakfast as opposed to the vile turkey sausage.  Oh, and the person providing breakfast had it out and ready way before 630 am.  That means a lot as we have limited time to eat and get to work.  It made the difference of not getting breakfast or eating it so fast you didn't taste it.  Kudos to the breakfast attendant. I appreciate the fact I can get a good breakfast to start the day.  This Holiday Inn is independently operated, that's probably why the service and amenities are so good.  Highly recommended. 8 stars.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r332279904-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>332279904</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It'll do but don't expect much for the high rates </t>
+  </si>
+  <si>
+    <t>Front desk staff was pleasant. Room was poorly lit, bed and pillows are very firm. Beds were small and very bouncy. Don't expect to get up in the middle of the night and not wake up your partner. Not very good sound deadening. A herd of elephants were running around in the room above us. Be sure to get a room on the ends of the building. Breakfast was horrible. Microwave bacon, powder eggs, rubbery pancakes out of the machine, and horrible coffee. Get more use out of it if they turned it into a barMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Front desk staff was pleasant. Room was poorly lit, bed and pillows are very firm. Beds were small and very bouncy. Don't expect to get up in the middle of the night and not wake up your partner. Not very good sound deadening. A herd of elephants were running around in the room above us. Be sure to get a room on the ends of the building. Breakfast was horrible. Microwave bacon, powder eggs, rubbery pancakes out of the machine, and horrible coffee. Get more use out of it if they turned it into a barMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r320051730-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>320051730</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Getting too pricey for me</t>
+  </si>
+  <si>
+    <t>Very nice people, nice room, air worked great. Problem is rates have gotten to high for my busniess, asked for a reduced rate for the two nights, nothing available. I have stayed there many many times most recent in Sept. and have been a Rewards Club member since 1983. Be nice if that was traken into consideration. Loyality should mean something. Will have to find another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Very nice people, nice room, air worked great. Problem is rates have gotten to high for my busniess, asked for a reduced rate for the two nights, nothing available. I have stayed there many many times most recent in Sept. and have been a Rewards Club member since 1983. Be nice if that was traken into consideration. Loyality should mean something. Will have to find another hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r318881803-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -390,9 +552,6 @@
     <t>First the good - nice front desk staff, good coffee available very early in the morning, spacious rooms!  The bad - stained carpeting and a bit on the dirty side and mold around tub and shower unit - not what I expect from a good Holiday Inn Express!  And now for the ugly - stained sheets on bed.  While I'm sure that they were clean (hopefully) there is ABSOLUTELY no excuse for putting them back on a bed.  Again, I expect better from the Holiday Inn family!MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded October 29, 2015</t>
   </si>
   <si>
@@ -435,6 +594,48 @@
     <t>The Hotel was nice and clean and the breakfast was good. The only problem we had there was our door keys stopped working 4 times! We were locked out of our room for half an hour when we needed to be getting ready for the wedding. They finally moved us to a different room. We were able to get ready and we got to there just ahead of the wedding party's march down the isle. Whew! All in all, it was a good stay, the hotel personnel were all nice and eager to help. We would definitely stay there again!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r298501906-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>298501906</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>As you expect from a Holiday Inn.</t>
+  </si>
+  <si>
+    <t>Well appointed clean rooms, nice public areas and a good hot breakfast. Pool area pretty small, but also nice. WiFi stable and adequately fast. There were no problems with anything except a room safe that didn't work, maybe the reception could have done more to get that fixed.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r284425381-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>284425381</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Great stay at Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I recently spent 4 nights at this hotel in Early June 2015. I was there on business, this hotel had everything a business traveller needs. Internet was fast and wasnt dropping out constantly, rooms were clean, spacious and well kept. Staff was very helpful. One small note. There wasn't much consistency amongst room rates, My coworkers and I all had the same rooms but we were all charged different prices...My only real complaint has nothing to do with the hotel itself but more the location. There is nothing around here, not much for food options in the area except for greasy spoon type places. There is nothing for any sort of entertainment in these parts either, at least my coworkers and I could not find much. I dont consider a 40 min drive to downtown Houston close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded July 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2015</t>
+  </si>
+  <si>
+    <t>I recently spent 4 nights at this hotel in Early June 2015. I was there on business, this hotel had everything a business traveller needs. Internet was fast and wasnt dropping out constantly, rooms were clean, spacious and well kept. Staff was very helpful. One small note. There wasn't much consistency amongst room rates, My coworkers and I all had the same rooms but we were all charged different prices...My only real complaint has nothing to do with the hotel itself but more the location. There is nothing around here, not much for food options in the area except for greasy spoon type places. There is nothing for any sort of entertainment in these parts either, at least my coworkers and I could not find much. I dont consider a 40 min drive to downtown Houston close by.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r282712018-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -450,9 +651,6 @@
     <t>Upon arriving check in was fast and the lobby is very nicely decorated.  I asked about local restaruants for dinner and was given great advice.  The room was very large with sofa and chairs and 2 queen beds.  Also, small refridgerator, microwave, sink with cabinets.  Would be perfect for small family traveling or someone taking family on business trip with them.  The bathroom was nice and clean with a great shower head and towels.  I felt very safe inside and in the well lite parking area. The breakfast area was clean and there was plenty to eat and plenty of tables and chairs.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded June 26, 2015</t>
   </si>
   <si>
@@ -495,6 +693,48 @@
     <t>This is a new hotel, very clean. The rooms are huge. Nice pool and hot tub. Nice breakfast. My only complaint was the staff, they were so rude when we checked in. And they did not listen to us. I'm a reward customer and I gave him my number he pushed it aside, gave us and another guy he same room. Very rude people</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r263749361-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>263749361</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>The little things make a big difference</t>
+  </si>
+  <si>
+    <t>I stayed a the Holiday Inn Express Deer Park for 5 nights on business.  I arrived late Sunday night and asked for a wake up call at 6am the next morning.  Luckily I set my alarm since I did not receive the wake up call that morning.  After returning to my room that afternoon, I received the wake up call at 6pm.  I also had a note from the housekeeping staff that they were out of the regular caffeinated coffee packs.  I wasn't really concerned since they have coffee downstairs in the morning, but I never did receive any coffee packs the rest of the week.  I had a very early flight on Friday morning and was not able to make coffee before hand.  I also went to their fitness room each morning at 5am.  There was only one treadmill (the other one was broken), an elliptical, and a bike.  There were always 3 of us down there at that time and I was only able to get the treadmill once.  The last morning I worked out they had no towels in the fitness center.  The satellite TV was very slow to respond and the remote did not have a sleep timer.  I attempted twice to take a bath in the evening, only to have lukewarm water.  I ran the water for at least 10 minutes to get it warm, however in the morning I had no trouble with hot...I stayed a the Holiday Inn Express Deer Park for 5 nights on business.  I arrived late Sunday night and asked for a wake up call at 6am the next morning.  Luckily I set my alarm since I did not receive the wake up call that morning.  After returning to my room that afternoon, I received the wake up call at 6pm.  I also had a note from the housekeeping staff that they were out of the regular caffeinated coffee packs.  I wasn't really concerned since they have coffee downstairs in the morning, but I never did receive any coffee packs the rest of the week.  I had a very early flight on Friday morning and was not able to make coffee before hand.  I also went to their fitness room each morning at 5am.  There was only one treadmill (the other one was broken), an elliptical, and a bike.  There were always 3 of us down there at that time and I was only able to get the treadmill once.  The last morning I worked out they had no towels in the fitness center.  The satellite TV was very slow to respond and the remote did not have a sleep timer.  I attempted twice to take a bath in the evening, only to have lukewarm water.  I ran the water for at least 10 minutes to get it warm, however in the morning I had no trouble with hot water.  I would like to add that the hotel was very clean and the staff was very pleasant.  The hotel was quiet and I did sleep good.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>I stayed a the Holiday Inn Express Deer Park for 5 nights on business.  I arrived late Sunday night and asked for a wake up call at 6am the next morning.  Luckily I set my alarm since I did not receive the wake up call that morning.  After returning to my room that afternoon, I received the wake up call at 6pm.  I also had a note from the housekeeping staff that they were out of the regular caffeinated coffee packs.  I wasn't really concerned since they have coffee downstairs in the morning, but I never did receive any coffee packs the rest of the week.  I had a very early flight on Friday morning and was not able to make coffee before hand.  I also went to their fitness room each morning at 5am.  There was only one treadmill (the other one was broken), an elliptical, and a bike.  There were always 3 of us down there at that time and I was only able to get the treadmill once.  The last morning I worked out they had no towels in the fitness center.  The satellite TV was very slow to respond and the remote did not have a sleep timer.  I attempted twice to take a bath in the evening, only to have lukewarm water.  I ran the water for at least 10 minutes to get it warm, however in the morning I had no trouble with hot...I stayed a the Holiday Inn Express Deer Park for 5 nights on business.  I arrived late Sunday night and asked for a wake up call at 6am the next morning.  Luckily I set my alarm since I did not receive the wake up call that morning.  After returning to my room that afternoon, I received the wake up call at 6pm.  I also had a note from the housekeeping staff that they were out of the regular caffeinated coffee packs.  I wasn't really concerned since they have coffee downstairs in the morning, but I never did receive any coffee packs the rest of the week.  I had a very early flight on Friday morning and was not able to make coffee before hand.  I also went to their fitness room each morning at 5am.  There was only one treadmill (the other one was broken), an elliptical, and a bike.  There were always 3 of us down there at that time and I was only able to get the treadmill once.  The last morning I worked out they had no towels in the fitness center.  The satellite TV was very slow to respond and the remote did not have a sleep timer.  I attempted twice to take a bath in the evening, only to have lukewarm water.  I ran the water for at least 10 minutes to get it warm, however in the morning I had no trouble with hot water.  I would like to add that the hotel was very clean and the staff was very pleasant.  The hotel was quiet and I did sleep good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r260451773-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>260451773</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Large rooms - nice hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice room with coffee maker, safety case, fridge, micro-wave, desk, table, high speed wi-fi. Nice complementary breakfast and newspaper.  Clean, safe, easy to park. No non-sense hidden costs. Reception desk efficient and friendly. Be cautious that should you need to get a cab there it might get some time to get one, so prepare in advance if you can as this is not a very busy area. Would definitely come back.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r257395304-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -558,6 +798,39 @@
     <t>Lots of room in this two queen room. Also had a two-seater table and a couch and coffee table. The bathroom had a speaker connected to the TV, so I didn't miss a second of audio on the game I was watching! Nice touch that I'd like to see more of in IHG hotel rooms. The workout facility was pretty clean, but the treadmills were in need of some maintenance. They were noisy and did not have full functionality.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r241308627-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>241308627</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Beautiful landscape &amp; interior design</t>
+  </si>
+  <si>
+    <t>The best Holiday Inn ever except not convenient to much. Large paved parking lot. Wonderful covered but outside open pool &amp; hot tub area. TV speaker in bathroom. Love the ceiling fan since windows won't open.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r231662874-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>231662874</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Very nice, but could use a deep clean.</t>
+  </si>
+  <si>
+    <t>We just stayed here and enjoyed the HUGE suite. We were surprised at the massive room. Usually a family suite is much smaller, but the Sq footage was great! The bathtub had a corner with some black mold. And it really looked like bathroom just needed a really good deep clean. The beds were not as comfy as some, ours was a little lumpy. They didn't feel like the newer ones from other hotels we've stayed in. But don't get me wrong the stay was nice! And we were comfortable enough! The last day of our 3 days stay we decided to have the free breakfast; it was a little disappointing, the omelet "thing" was gross, I thought it was just an egg pattie but inside was some mixture that was not good. The biscuits were "crispy" on the outside, but the gravy did soften then. Over all it was fine and plenty  for us to eat. I am just reviewing the things that could be improved. I would stay here again. The staff was nice but not overly annoying like some places. We never even saw a maid in the hall which was nice to not be awoken by a knock on our door. Staying here was a nice experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>We just stayed here and enjoyed the HUGE suite. We were surprised at the massive room. Usually a family suite is much smaller, but the Sq footage was great! The bathtub had a corner with some black mold. And it really looked like bathroom just needed a really good deep clean. The beds were not as comfy as some, ours was a little lumpy. They didn't feel like the newer ones from other hotels we've stayed in. But don't get me wrong the stay was nice! And we were comfortable enough! The last day of our 3 days stay we decided to have the free breakfast; it was a little disappointing, the omelet "thing" was gross, I thought it was just an egg pattie but inside was some mixture that was not good. The biscuits were "crispy" on the outside, but the gravy did soften then. Over all it was fine and plenty  for us to eat. I am just reviewing the things that could be improved. I would stay here again. The staff was nice but not overly annoying like some places. We never even saw a maid in the hall which was nice to not be awoken by a knock on our door. Staying here was a nice experience. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r226415258-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -627,6 +900,57 @@
     <t>Typical Holiday Inn USA Breakfast, with delicious Cinnamon roll. The room was clean, large and comfortable, and the pillows were also good and new. Customer service was very kind, they helped me to solve the issues with my IHG rewards registration (caused by wrong data input from UK Holiday Inn). I would definitely stay there if travelling again to Deer Park/Pasadena. Near to Center St, where you can find all the gas station, pharmacies and restaurants (the few restaurants in DeerPark).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r214267046-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>214267046</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Nice large room!</t>
+  </si>
+  <si>
+    <t>It was a very large room with a couch, table for eating, refrigerator and microwave. It was very clean and nice. Great hot breakfast. If you want to ever see the Battleship Texas or San Jacinto monument outside Houston, this is the place to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>It was a very large room with a couch, table for eating, refrigerator and microwave. It was very clean and nice. Great hot breakfast. If you want to ever see the Battleship Texas or San Jacinto monument outside Houston, this is the place to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r212617642-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>212617642</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!!</t>
+  </si>
+  <si>
+    <t>I recently had the opportunity to stay at he Holiday Inn Express in Deer Park on business.   When my co-worker and I showed up at the hotel to check in we realized that we had made our reservation at the wrong Holiday Inn.  Hannah sprang into action by calling the other location to cancel our reservations and ensure that we would not be charged any cancellation fees.  She wrote down the cancellation numbers along with the contact at the other location's name in the event there were any issues --there weren't.  Hannah was then able to book my co-worker and I for the week.  They didn't have any single King rooms left, but she was able to accomodate each of us in a double queen room.  We were both pleasantly surprised with the size of the rooms, as well as the cleanliness. In addition to the 2 queen beds, each room included a desk, a small couch and chair in a "living area", along with a coffee maker, refrigerator, microwave and sink.Each day the room was perfectly made up upon my return to the hotel.  I did have an issue with the keys and had to have them re-coded, but Hannah took care of that very quickly and even remembered my name and room number.The customer service provided by Hannah was OUTSTANDING!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>I recently had the opportunity to stay at he Holiday Inn Express in Deer Park on business.   When my co-worker and I showed up at the hotel to check in we realized that we had made our reservation at the wrong Holiday Inn.  Hannah sprang into action by calling the other location to cancel our reservations and ensure that we would not be charged any cancellation fees.  She wrote down the cancellation numbers along with the contact at the other location's name in the event there were any issues --there weren't.  Hannah was then able to book my co-worker and I for the week.  They didn't have any single King rooms left, but she was able to accomodate each of us in a double queen room.  We were both pleasantly surprised with the size of the rooms, as well as the cleanliness. In addition to the 2 queen beds, each room included a desk, a small couch and chair in a "living area", along with a coffee maker, refrigerator, microwave and sink.Each day the room was perfectly made up upon my return to the hotel.  I did have an issue with the keys and had to have them re-coded, but Hannah took care of that very quickly and even remembered my name and room number.The customer service provided by Hannah was OUTSTANDING!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r210777788-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -642,9 +966,6 @@
     <t>I have stayed at this hotel previously and chose it on my recent return trip to Deer Park to visit family.  Located on a quiet side street and yet very accessible to the "main drag" of Center St. Rooms were very clean and staff was very courteous.  They offer a hot breakfast which my grandsons thought were awesome.  The pancake machine and fresh cinnamon rolls were delicious and a big hit. My only concern was that the cantina didn't have a very big selection to chose from.  Also, soda machines don't offer bottled water.  All in all, a very comfortable stay.</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r198948902-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -699,30 +1020,73 @@
     <t>I've stayed at alot of HIE's on business and leisure trips, and I must say this one is in the top three in my book. The staff was very courteous and polite.They even gave me a little welcome gift with various convenience item because I was an IHG Rewards member. The room (a Suite) was absolutley clean and still had a brand new appearance. I was impressed with the generous variety of toiletries in the bath.The public areas of the hotel were quiet and well kept and breakfast was served hot and promptly in the morning. It was a completley pleasant stay and if I have areason to go back to the Houston area I will definitely book there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r186303086-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>186303086</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Clean and spacious Holiday Inn</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights during a recent business trip to Houston. Very convienient location if you are visiting businesses in the Deer Park, La Porte or Baytown area: saves you a long &amp; crowded commute from downtown Houston. The hotel is located on a quiet side street but is still close to the Centre St. where you can find a number of decent restaurants to eat. Rooms are very spacious and clean. Wi-Fi and airconditioning work well and the free breakfast is quite sumptuous. In summary, an excellent place to stay on a business trip to southeast Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>King W, General Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights during a recent business trip to Houston. Very convienient location if you are visiting businesses in the Deer Park, La Porte or Baytown area: saves you a long &amp; crowded commute from downtown Houston. The hotel is located on a quiet side street but is still close to the Centre St. where you can find a number of decent restaurants to eat. Rooms are very spacious and clean. Wi-Fi and airconditioning work well and the free breakfast is quite sumptuous. In summary, an excellent place to stay on a business trip to southeast Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r180280455-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>180280455</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent Holiday Inn</t>
+  </si>
+  <si>
+    <t>This hotel has to be one of the best HI's I've ever stayed at.  I arrived late, was basically the last person to check in for the night.  When I got to my hotel room, I was pleasantly surprised to have a very nice, spacious room.  It was a chilly night, so I turned on the heat in the room.  Unfortunately...this was the first time that the heat was turned on in quite some time...and a horrible smell was emitted from the wall unit which actually set off the room's fire alarm...I immediately notified the front desk, who came up to investigate immediately.  The hotel was booked solid, so no extra rooms to move into.  The staff offered to call maintenance who was not on site, but that wouldn't do anything...the heater just needed to be turned on for a while to get the smell out of the system.  A good suggestion from the staff on duty was that she would suggest to management that when the rooms are unoccupied- to turn on the heat for a little bit to get the smell out before a guest checks in.  Good idea, but not sure if it's possible to do this but a good idea!   The smell dissipated with the ceiling fan on &amp; bathroom exhaust fan on.
+There was a visit from the maintenance staff first thing the next morning- great job / attention to detail!
+Breakfast was very good....This hotel has to be one of the best HI's I've ever stayed at.  I arrived late, was basically the last person to check in for the night.  When I got to my hotel room, I was pleasantly surprised to have a very nice, spacious room.  It was a chilly night, so I turned on the heat in the room.  Unfortunately...this was the first time that the heat was turned on in quite some time...and a horrible smell was emitted from the wall unit which actually set off the room's fire alarm...I immediately notified the front desk, who came up to investigate immediately.  The hotel was booked solid, so no extra rooms to move into.  The staff offered to call maintenance who was not on site, but that wouldn't do anything...the heater just needed to be turned on for a while to get the smell out of the system.  A good suggestion from the staff on duty was that she would suggest to management that when the rooms are unoccupied- to turn on the heat for a little bit to get the smell out before a guest checks in.  Good idea, but not sure if it's possible to do this but a good idea!   The smell dissipated with the ceiling fan on &amp; bathroom exhaust fan on.There was a visit from the maintenance staff first thing the next morning- great job / attention to detail!Breakfast was very good.  The pool / hot tub seemed nice but I didn't get a chance to use them.I highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>King W, Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>This hotel has to be one of the best HI's I've ever stayed at.  I arrived late, was basically the last person to check in for the night.  When I got to my hotel room, I was pleasantly surprised to have a very nice, spacious room.  It was a chilly night, so I turned on the heat in the room.  Unfortunately...this was the first time that the heat was turned on in quite some time...and a horrible smell was emitted from the wall unit which actually set off the room's fire alarm...I immediately notified the front desk, who came up to investigate immediately.  The hotel was booked solid, so no extra rooms to move into.  The staff offered to call maintenance who was not on site, but that wouldn't do anything...the heater just needed to be turned on for a while to get the smell out of the system.  A good suggestion from the staff on duty was that she would suggest to management that when the rooms are unoccupied- to turn on the heat for a little bit to get the smell out before a guest checks in.  Good idea, but not sure if it's possible to do this but a good idea!   The smell dissipated with the ceiling fan on &amp; bathroom exhaust fan on.
+There was a visit from the maintenance staff first thing the next morning- great job / attention to detail!
+Breakfast was very good....This hotel has to be one of the best HI's I've ever stayed at.  I arrived late, was basically the last person to check in for the night.  When I got to my hotel room, I was pleasantly surprised to have a very nice, spacious room.  It was a chilly night, so I turned on the heat in the room.  Unfortunately...this was the first time that the heat was turned on in quite some time...and a horrible smell was emitted from the wall unit which actually set off the room's fire alarm...I immediately notified the front desk, who came up to investigate immediately.  The hotel was booked solid, so no extra rooms to move into.  The staff offered to call maintenance who was not on site, but that wouldn't do anything...the heater just needed to be turned on for a while to get the smell out of the system.  A good suggestion from the staff on duty was that she would suggest to management that when the rooms are unoccupied- to turn on the heat for a little bit to get the smell out before a guest checks in.  Good idea, but not sure if it's possible to do this but a good idea!   The smell dissipated with the ceiling fan on &amp; bathroom exhaust fan on.There was a visit from the maintenance staff first thing the next morning- great job / attention to detail!Breakfast was very good.  The pool / hot tub seemed nice but I didn't get a chance to use them.I highly recommend this hotel!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r180237407-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
     <t>180237407</t>
   </si>
   <si>
-    <t>10/08/2013</t>
-  </si>
-  <si>
     <t>What more to want?</t>
   </si>
   <si>
     <t>This was a great hotel experience in contrast the to terrible experience at a previous hotel.  Check in was a breeze, the price was only $5 higher than a much worse hotel a block away, the bed was comfy, ac worked great, it was clean, multitude of soaps and lotions in the bathroom.  The room is huge as at all HI Express, I don't have a single complaint.  I didn't have my rewards card with me and the front desk agent advised she would look it up for me as it was late.  She couldn't find it so left a nice hand written note under the door explaining what we should do in the morning.  5 stars!MoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
-    <t>King W, Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded October 9, 2013</t>
-  </si>
-  <si>
-    <t>Responded October 9, 2013</t>
-  </si>
-  <si>
     <t>This was a great hotel experience in contrast the to terrible experience at a previous hotel.  Check in was a breeze, the price was only $5 higher than a much worse hotel a block away, the bed was comfy, ac worked great, it was clean, multitude of soaps and lotions in the bathroom.  The room is huge as at all HI Express, I don't have a single complaint.  I didn't have my rewards card with me and the front desk agent advised she would look it up for me as it was late.  She couldn't find it so left a nice hand written note under the door explaining what we should do in the morning.  5 stars!More</t>
   </si>
   <si>
@@ -765,9 +1129,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded May 21, 2013</t>
   </si>
   <si>
@@ -777,6 +1138,48 @@
     <t>We picked this hotel as it was about half way between Johnson Space Centre and San Jacinto Battleground State Historic Park.It was easy to find and is definitely quiet. The room is quite big - king size bed, lounge, easy chair, desk and a HUGE bathroom. How unusual but lovely! The room was clean.The only problem we've had is with breakfast - no yoghurt and running out of items an hour before breakfast is finished! Not good.Laundry facilities on every floor is a great idea.The front desk staff were very friendly and helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r154512754-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>154512754</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, helpful staff</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel recently for 3 nights.  The staff was very polite, friendly and helpful.  The location was very convenient for me to get to my workplace easily, which in Houston is not always the case.  I have one suggestion.  Usually I like to work on the computer in the morning before leaving my room.  I'd have lked it better if they had trays in which I could bring breakfast to my room.  They did have a sign but no trays.Thanks!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r154285602-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>154285602</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Don't expect much for breakfast!</t>
+  </si>
+  <si>
+    <t>Worst HIE breakfast I've ever had!    Fridge was empty with just s couple of yogurts and pitcher of milk.    Staff were not attentive to the bfast area....as if they had no idea what they were doing?.    Room was noisy.     Room was not very clean.   MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Deer Park, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Worst HIE breakfast I've ever had!    Fridge was empty with just s couple of yogurts and pitcher of milk.    Staff were not attentive to the bfast area....as if they had no idea what they were doing?.    Room was noisy.     Room was not very clean.   More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r129412394-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -835,6 +1238,45 @@
   </si>
   <si>
     <t>This property was way above average, in most every respect I care about at least.  Cleanliness, condition of everything, and even Wi-Fi (yes, WiFi).  The WiFi here was some of the fastest I've ever seen in a hotel.  I consistently experienced 10+ meg download and 5+ meg upload.  This was great for this business traveler.  I have no idea about breakfast, business center, pool, or anything else.  I will certainly stay here again when Deer Park would be a good hub for my business travel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r121328426-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>121328426</t>
+  </si>
+  <si>
+    <t>12/02/2011</t>
+  </si>
+  <si>
+    <t>YES!</t>
+  </si>
+  <si>
+    <t>Now this is what a Holiday Inn Express is SUPPOSED to be—and I know that because I stay in a lot of them! We were having a family “reunion” of sorts [adults and teens], so we had two rooms—and some of the relatives had not been in a HIE before…and it was fun to see their wide-eyed delight with the lodging. From location to check-in, to special requests, to area information, to facilities, to room décor, to cleanliness, to comfort, to breakfast—everything about this stay was complete and fulfilling—and at a very affordable price! I have no doubt that all of us will want to return here for next year’s gathering!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Now this is what a Holiday Inn Express is SUPPOSED to be—and I know that because I stay in a lot of them! We were having a family “reunion” of sorts [adults and teens], so we had two rooms—and some of the relatives had not been in a HIE before…and it was fun to see their wide-eyed delight with the lodging. From location to check-in, to special requests, to area information, to facilities, to room décor, to cleanliness, to comfort, to breakfast—everything about this stay was complete and fulfilling—and at a very affordable price! I have no doubt that all of us will want to return here for next year’s gathering!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r116765586-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>116765586</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>Great service, nice people</t>
+  </si>
+  <si>
+    <t>Great hotel, they know hospitality !! Friendly employees and great self service breakfast. Very well kept and clean. Lots of restaurants nearby !</t>
+  </si>
+  <si>
+    <t>August 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1139790-r33979433-Holiday_Inn_Express_Hotel_Suites_Deer_Park-Deer_Park_Texas.html</t>
@@ -1405,7 +1847,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1419,11 +1861,11 @@
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1431,7 +1873,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1447,7 +1889,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1456,25 +1898,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1488,7 +1930,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1504,7 +1946,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1513,43 +1955,45 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1565,34 +2009,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1606,7 +2050,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1622,58 +2066,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1689,54 +2127,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>75</v>
-      </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1752,7 +2188,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1761,25 +2197,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1790,14 +2226,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>99</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1813,58 +2245,48 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
       <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1880,37 +2302,37 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" t="s">
-        <v>60</v>
-      </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1919,19 +2341,19 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1947,7 +2369,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1956,43 +2378,45 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>125</v>
-      </c>
-      <c r="X11" t="s">
-        <v>126</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -2008,7 +2432,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2017,39 +2441,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -2065,7 +2493,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2074,37 +2502,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2112,7 +2540,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2128,7 +2556,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2137,47 +2565,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -2193,7 +2617,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2202,39 +2626,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -2250,7 +2684,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2259,35 +2693,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -2303,50 +2751,52 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
         <v>159</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>160</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>161</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
         <v>162</v>
       </c>
-      <c r="L17" t="s">
-        <v>163</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -2362,58 +2812,58 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
         <v>167</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>168</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
         <v>169</v>
       </c>
-      <c r="K18" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" t="s">
-        <v>171</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>172</v>
-      </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="X18" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -2429,58 +2879,52 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>174</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>175</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>176</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>177</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>178</v>
       </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>153</v>
-      </c>
-      <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
-      <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>164</v>
-      </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -2496,7 +2940,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2505,49 +2949,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>186</v>
-      </c>
-      <c r="X20" t="s">
-        <v>187</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -2563,48 +2997,54 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
         <v>189</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>190</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>191</v>
       </c>
-      <c r="K21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L21" t="s">
-        <v>193</v>
-      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
@@ -2620,58 +3060,54 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
         <v>195</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>196</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>197</v>
       </c>
-      <c r="K22" t="s">
-        <v>198</v>
-      </c>
-      <c r="L22" t="s">
-        <v>199</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>194</v>
-      </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>200</v>
-      </c>
-      <c r="X22" t="s">
-        <v>201</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
@@ -2687,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2696,35 +3132,29 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
         <v>5</v>
       </c>
@@ -2735,10 +3165,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
@@ -2754,62 +3188,56 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
         <v>209</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>210</v>
       </c>
-      <c r="J24" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" t="s">
-        <v>212</v>
-      </c>
-      <c r="L24" t="s">
-        <v>213</v>
-      </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
@@ -2825,62 +3253,48 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
         <v>218</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>219</v>
       </c>
-      <c r="J25" t="s">
-        <v>220</v>
-      </c>
-      <c r="K25" t="s">
-        <v>221</v>
-      </c>
-      <c r="L25" t="s">
-        <v>222</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>223</v>
-      </c>
       <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>224</v>
-      </c>
-      <c r="X25" t="s">
-        <v>225</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -2896,7 +3310,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2905,53 +3319,35 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>232</v>
-      </c>
-      <c r="O26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>233</v>
-      </c>
-      <c r="X26" t="s">
-        <v>234</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27">
@@ -2967,7 +3363,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2976,39 +3372,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>232</v>
+      </c>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
@@ -3024,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3033,53 +3437,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
-        <v>249</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>250</v>
-      </c>
-      <c r="X28" t="s">
-        <v>251</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
@@ -3095,7 +3485,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3104,53 +3494,41 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="s">
-        <v>258</v>
-      </c>
-      <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
@@ -3166,7 +3544,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3175,37 +3553,33 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3214,10 +3588,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>244</v>
+      </c>
+      <c r="X30" t="s">
+        <v>245</v>
+      </c>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -3233,7 +3611,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3242,45 +3620,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>219</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>244</v>
+      </c>
+      <c r="X31" t="s">
+        <v>245</v>
+      </c>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
@@ -3296,7 +3678,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3305,34 +3687,30 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="N32" t="s">
-        <v>278</v>
-      </c>
-      <c r="O32" t="s">
-        <v>76</v>
-      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="n">
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -3347,7 +3725,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -3363,7 +3741,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3372,37 +3750,33 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>284</v>
-      </c>
-      <c r="O33" t="s">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
         <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3414,7 +3788,1475 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>276</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>277</v>
+      </c>
+      <c r="X34" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" t="s">
         <v>283</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" t="s">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s">
+        <v>290</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>291</v>
+      </c>
+      <c r="X36" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>308</v>
+      </c>
+      <c r="X38" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>316</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>317</v>
+      </c>
+      <c r="J40" t="s">
+        <v>318</v>
+      </c>
+      <c r="K40" t="s">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s">
+        <v>320</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>321</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>322</v>
+      </c>
+      <c r="X40" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>330</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>331</v>
+      </c>
+      <c r="X41" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
+        <v>338</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>339</v>
+      </c>
+      <c r="X42" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+      <c r="J43" t="s">
+        <v>344</v>
+      </c>
+      <c r="K43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>347</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>348</v>
+      </c>
+      <c r="X43" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>344</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>354</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>347</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>348</v>
+      </c>
+      <c r="X44" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>361</v>
+      </c>
+      <c r="O45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s">
+        <v>367</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>368</v>
+      </c>
+      <c r="O46" t="s">
+        <v>162</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>369</v>
+      </c>
+      <c r="X46" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" t="s">
+        <v>380</v>
+      </c>
+      <c r="K48" t="s">
+        <v>381</v>
+      </c>
+      <c r="L48" t="s">
+        <v>382</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>383</v>
+      </c>
+      <c r="X48" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>392</v>
+      </c>
+      <c r="X49" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>395</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>396</v>
+      </c>
+      <c r="J50" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50" t="s">
+        <v>398</v>
+      </c>
+      <c r="L50" t="s">
+        <v>399</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>400</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s">
+        <v>405</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>414</v>
+      </c>
+      <c r="J53" t="s">
+        <v>415</v>
+      </c>
+      <c r="K53" t="s">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s">
+        <v>417</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>418</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>420</v>
+      </c>
+      <c r="J54" t="s">
+        <v>421</v>
+      </c>
+      <c r="K54" t="s">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s">
+        <v>423</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>424</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57749</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L55" t="s">
+        <v>429</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>430</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
